--- a/biology/Biochimie/Nomenclature_EC/Nomenclature_EC.xlsx
+++ b/biology/Biochimie/Nomenclature_EC/Nomenclature_EC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature EC (EC est le sigle de Enzyme Commission numbers, la Commission des enzymes) est une classification numérique des enzymes, basée sur la réaction chimique qu'elles catalysent. En tant que système de nomenclature des enzymes, chaque numéro EC est associé à un nom recommandé pour l'enzyme correspondante.
 </t>
@@ -511,7 +523,9 @@
           <t>Format</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque code d'enzyme consiste en les lettres majuscules « EC » suivies de quatre nombres séparés par des points. Ces nombres représentent chacun une étape dans la précision de la classification de l'enzyme.
 Par exemple, l'enzyme tripeptide aminopeptidase a le code EC 3.4.11.4 qui est construit comme suit : 3 signifie une hydrolase (enzymes qui utilisent l'eau pour détruire une autre molécule), 3.4 signifie hydrolases agissant sur des liens peptidiques, 3.4.11 implique celles qui détachent un acide aminé amino-terminal d'un polypeptide et 3.4.11.4 implique celles qui détachent cet acide aminé amino-terminal d'un tripeptide.
@@ -554,9 +568,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nomenclature des enzymes a été développée à partir de 1955, lorsque le Congrès International de Biochimie à Bruxelles a créé l’Enzyme Commission (Commission des Enzymes). Sa première version fut publiée en 1961. La sixième, publiée par l'Union internationale de biochimie et de biologie moléculaire (IUBMB) en 1992, contient 3 196 enzymes différentes. En août 2018, l'IUBMB a modifié ce système en ajoutant une septième catégorie (EC 7) contenant les translocases (en)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nomenclature des enzymes a été développée à partir de 1955, lorsque le Congrès International de Biochimie à Bruxelles a créé l’Enzyme Commission (Commission des Enzymes). Sa première version fut publiée en 1961. La sixième, publiée par l'Union internationale de biochimie et de biologie moléculaire (IUBMB) en 1992, contient 3 196 enzymes différentes. En août 2018, l'IUBMB a modifié ce système en ajoutant une septième catégorie (EC 7) contenant les translocases (en).
 </t>
         </is>
       </c>
